--- a/artikli.xlsx
+++ b/artikli.xlsx
@@ -12343,7 +12343,7 @@
     <t>3870398915524</t>
   </si>
   <si>
-    <t>4124</t>
+    <t>9000101820423</t>
   </si>
   <si>
     <t>4820111141081</t>
@@ -12352,7 +12352,7 @@
     <t>4820111141098</t>
   </si>
   <si>
-    <t>4128</t>
+    <t>3875000970779</t>
   </si>
   <si>
     <t>4129</t>
@@ -12361,7 +12361,7 @@
     <t>8606033742386</t>
   </si>
   <si>
-    <t>4131</t>
+    <t>9000101820454</t>
   </si>
   <si>
     <t>8412147570070</t>
@@ -16729,7 +16729,7 @@
     <t>Orbit melon</t>
   </si>
   <si>
-    <t>Orbit spearmint</t>
+    <t>ORBIT SPEARMINT</t>
   </si>
   <si>
     <t>Orbit strawberry</t>
@@ -17362,7 +17362,7 @@
     <t>DR MILK JOGURT 2.8%MM 1KG</t>
   </si>
   <si>
-    <t>MOJA KRAVICA JOGURT 500 G</t>
+    <t>MOJA KRAVICA JOGURT 2.8&amp;MM 500G</t>
   </si>
   <si>
     <t>BALANS JOGURT 500 G</t>
@@ -17749,10 +17749,10 @@
     <t>SOLA LEDENI CAJ LIMUN 0,5 L</t>
   </si>
   <si>
-    <t>IMLEK CAFE LATE MACHIATO 250 ML</t>
-  </si>
-  <si>
-    <t>IMLEK CAFE LATE MACCHIATO 0.25L</t>
+    <t>IMLEK CAFFE LATE CAPPUCCINO 0.25L</t>
+  </si>
+  <si>
+    <t>IMLEK CAFFE LATE MACCHIATO 0.25L</t>
   </si>
   <si>
     <t>SCHWEPPES TONIC WATER 0,5L</t>
@@ -18181,10 +18181,10 @@
     <t>FRANCUZ KUKURUZA DUBRAVE</t>
   </si>
   <si>
-    <t>TEPSIJAS MALI DUBRAVE</t>
-  </si>
-  <si>
-    <t>TEPSIJAS VELIKI DUBRAVE</t>
+    <t>TEPSIJAS MALI DOMACI DUBRAVE</t>
+  </si>
+  <si>
+    <t>TEPSIJAS VELIKI DOMACI DUBRAVE</t>
   </si>
   <si>
     <t>REZANI TEPSIJAS DUBRAVE</t>
@@ -24094,7 +24094,7 @@
     <t>HRANS ZA MACKE 100G WISE CAT GOV.</t>
   </si>
   <si>
-    <t>VRB FILTER 500/1</t>
+    <t>WRB FILTER 500/1</t>
   </si>
   <si>
     <t>MAG. PRSTIC 7G KARAMEL</t>
@@ -24103,7 +24103,7 @@
     <t>CHIPSY DOMACINSKI SIR 145G</t>
   </si>
   <si>
-    <t>BREF WC OCEAN BREZZE</t>
+    <t>BREF WC OCEAN BREZZE 50G</t>
   </si>
   <si>
     <t>JAKE GUM.BOMB LUBENICA 100G</t>
@@ -25982,7 +25982,7 @@
         <v>4223</v>
       </c>
       <c r="D108">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -26640,7 +26640,7 @@
         <v>4269</v>
       </c>
       <c r="D155">
-        <v>2.8</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52960,7 +52960,7 @@
         <v>6047</v>
       </c>
       <c r="D2035">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="2036" spans="1:4">
@@ -53632,7 +53632,7 @@
         <v>6094</v>
       </c>
       <c r="D2083">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="2084" spans="1:4">
